--- a/laraveluserstories.xlsx
+++ b/laraveluserstories.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -29,10 +29,66 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>Basis</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Basis</t>
+    </r>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Extra</t>
+    </r>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+  </si>
+  <si>
+    <t>Vragen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Vragen</t>
+    </r>
   </si>
   <si>
     <t>Status</t>
@@ -101,96 +157,96 @@
     <t>ik verbinding kan maken en gegevens opslaan</t>
   </si>
   <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>duidelijke SEO friendly urls</t>
+  </si>
+  <si>
+    <t>zodat Google mijn website goed kan indexeren en vinden</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>minimaal 5 routes gemaakt hebben zonder dynamische parameters in de URL</t>
+  </si>
+  <si>
+    <t>zodat ik daar goed mee heb geoefend</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>minimaal 5 routes gemaakt hebben MET parameters in de URL</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>zowel GET als POST routes hebben aangemaakt in mijn route configuratie</t>
+  </si>
+  <si>
+    <t>zodat ik kan laten zien dat ik dit beheers</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>Routing &amp; Views</t>
+  </si>
+  <si>
+    <t>dat alle routes een 'name' hebben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zodat ik in mijn views makkelijk urls kan genereren </t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>bezoeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">een goede responsive layout </t>
+  </si>
+  <si>
+    <t>de site op alle devices goed werkt</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>Database, Views</t>
+  </si>
+  <si>
+    <t>een duidelijke homepage met de laatste inhoud uit de db</t>
+  </si>
+  <si>
+    <t>ik op de hoogte ben van de laatste ontwikkelingen</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>Frontend, Routing, Views</t>
+  </si>
+  <si>
+    <t>een menu met links naar alle pagina's</t>
+  </si>
+  <si>
+    <t>zodat ik vanaf elke pagina makkelijk kan navigeren</t>
+  </si>
+  <si>
     <t>Todo</t>
   </si>
   <si>
-    <t>B05</t>
-  </si>
-  <si>
-    <t>Routing</t>
-  </si>
-  <si>
-    <t>duidelijke SEO friendly urls</t>
-  </si>
-  <si>
-    <t>zodat Google mijn website goed kan indexeren en vinden</t>
-  </si>
-  <si>
-    <t>B06</t>
-  </si>
-  <si>
-    <t>minimaal 5 routes gemaakt hebben zonder dynamische parameters in de URL</t>
-  </si>
-  <si>
-    <t>zodat ik daar goed mee heb geoefend</t>
-  </si>
-  <si>
-    <t>B07</t>
-  </si>
-  <si>
-    <t>minimaal 5 routes gemaakt hebben MET parameters in de URL</t>
-  </si>
-  <si>
-    <t>B08</t>
-  </si>
-  <si>
-    <t>zowel GET als POST routes hebben aangemaakt in mijn route configuratie</t>
-  </si>
-  <si>
-    <t>zodat ik kan laten zien dat ik dit beheers</t>
-  </si>
-  <si>
-    <t>B09</t>
-  </si>
-  <si>
-    <t>Routing &amp; Views</t>
-  </si>
-  <si>
-    <t>dat alle routes een 'name' hebben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zodat ik in mijn views makkelijk urls kan genereren </t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>Frontend</t>
-  </si>
-  <si>
-    <t>bezoeker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">een goede responsive layout </t>
-  </si>
-  <si>
-    <t>de site op alle devices goed werkt</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>Database, Views</t>
-  </si>
-  <si>
-    <t>een duidelijke homepage met de laatste inhoud uit de db</t>
-  </si>
-  <si>
-    <t>ik op de hoogte ben van de laatste ontwikkelingen</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>Frontend, Routing, Views</t>
-  </si>
-  <si>
-    <t>een menu met links naar alle pagina's</t>
-  </si>
-  <si>
-    <t>zodat ik vanaf elke pagina makkelijk kan navigeren</t>
-  </si>
-  <si>
     <t>B13</t>
   </si>
   <si>
@@ -431,9 +487,6 @@
     <t>in overleg mag je bepaalde user stories aanpassen als je hiervoor een goede reden hebt</t>
   </si>
   <si>
-    <t>Extra</t>
-  </si>
-  <si>
     <t>E01</t>
   </si>
   <si>
@@ -581,9 +634,6 @@
     <t>in overleg mag je ook eigen user stories uitzoeken en bouwen natuurlijk</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Rollen</t>
   </si>
   <si>
@@ -597,9 +647,6 @@
   </si>
   <si>
     <t>Kom er niet uit</t>
-  </si>
-  <si>
-    <t>Vragen</t>
   </si>
   <si>
     <t>Datum</t>
@@ -649,12 +696,12 @@
     <font>
       <b val="1"/>
       <sz val="18"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="16"/>
-      <color indexed="14"/>
+      <color indexed="16"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -669,7 +716,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,12 +737,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -705,11 +764,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -718,7 +777,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -726,39 +785,95 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,7 +883,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -790,6 +905,63 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
@@ -802,46 +974,46 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -850,10 +1022,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -863,15 +1032,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="ffffffff"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="16"/>
+          <fgColor indexed="17"/>
+          <bgColor indexed="18"/>
         </patternFill>
       </fill>
     </dxf>
@@ -881,8 +1050,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="17"/>
+          <fgColor indexed="17"/>
+          <bgColor indexed="19"/>
         </patternFill>
       </fill>
     </dxf>
@@ -892,8 +1061,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="19"/>
+          <fgColor indexed="17"/>
+          <bgColor indexed="21"/>
         </patternFill>
       </fill>
     </dxf>
@@ -903,8 +1072,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="21"/>
+          <fgColor indexed="17"/>
+          <bgColor indexed="23"/>
         </patternFill>
       </fill>
     </dxf>
@@ -914,8 +1083,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="16"/>
+          <fgColor indexed="17"/>
+          <bgColor indexed="18"/>
         </patternFill>
       </fill>
     </dxf>
@@ -925,8 +1094,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="17"/>
+          <fgColor indexed="17"/>
+          <bgColor indexed="19"/>
         </patternFill>
       </fill>
     </dxf>
@@ -936,8 +1105,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="19"/>
+          <fgColor indexed="17"/>
+          <bgColor indexed="21"/>
         </patternFill>
       </fill>
     </dxf>
@@ -947,8 +1116,52 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="15"/>
+          <fgColor indexed="17"/>
+          <bgColor indexed="23"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ffffffff"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="17"/>
+          <bgColor indexed="18"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="17"/>
+          <bgColor indexed="19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff223962"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="17"/>
           <bgColor indexed="21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff9c0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="17"/>
+          <bgColor indexed="23"/>
         </patternFill>
       </fill>
     </dxf>
@@ -968,8 +1181,10 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff16a21b"/>
       <rgbColor rgb="00000000"/>
       <rgbColor rgb="ffff0000"/>
@@ -1177,17 +1392,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1215,10 +1430,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1466,12 +1681,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1758,7 +1973,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1786,10 +2001,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2040,107 +2255,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="28" customWidth="1"/>
+    <col min="2" max="2" width="28" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="256" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="0.05" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="10"/>
       <c r="B13" t="s" s="3">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
       <c r="B15" t="s" s="3">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="20"/>
       <c r="B16" s="4"/>
       <c r="C16" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>194</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Basis'!R1C1" tooltip="" display="Basis"/>
     <hyperlink ref="D12" location="'Extra'!R1C1" tooltip="" display="Extra"/>
     <hyperlink ref="D14" location="'Data'!R1C1" tooltip="" display="Data"/>
     <hyperlink ref="D16" location="'Vragen'!R1C1" tooltip="" display="Vragen"/>
+    <hyperlink ref="D12" location="'Basis'!R1C1" tooltip="" display="Basis"/>
+    <hyperlink ref="D14" location="'Extra'!R1C1" tooltip="" display="Extra"/>
+    <hyperlink ref="D16" location="'Data'!R1C1" tooltip="" display="Data"/>
+    <hyperlink ref="D18" location="'Vragen'!R1C1" tooltip="" display="Vragen"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2152,916 +2466,916 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="19" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.3516" style="6" customWidth="1"/>
-    <col min="2" max="3" width="14.6719" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32.8516" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16" style="6" customWidth="1"/>
-    <col min="6" max="6" width="99.6719" style="6" customWidth="1"/>
-    <col min="7" max="7" width="77.1719" style="6" customWidth="1"/>
-    <col min="8" max="8" width="43.6719" style="6" customWidth="1"/>
-    <col min="9" max="256" width="10.8516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.3516" style="25" customWidth="1"/>
+    <col min="2" max="3" width="14.6719" style="25" customWidth="1"/>
+    <col min="4" max="4" width="32.8516" style="25" customWidth="1"/>
+    <col min="5" max="5" width="16" style="25" customWidth="1"/>
+    <col min="6" max="6" width="99.6719" style="25" customWidth="1"/>
+    <col min="7" max="7" width="77.1719" style="25" customWidth="1"/>
+    <col min="8" max="8" width="43.6719" style="25" customWidth="1"/>
+    <col min="9" max="256" width="10.8516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="8">
+      <c r="A1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s" s="28">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s" s="28">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s" s="28">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s" s="28">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="C2" s="32">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="8">
+      <c r="D2" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="33">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="33">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s" s="33">
+        <v>27</v>
+      </c>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>28</v>
+      </c>
+      <c r="C3" s="37">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="38">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s" s="38">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s" s="38">
+        <v>27</v>
+      </c>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>30</v>
+      </c>
+      <c r="C4" s="37">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="38">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="38">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s" s="38">
+        <v>27</v>
+      </c>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="C5" s="37">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D5" t="s" s="38">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s" s="38">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s" s="38">
+        <v>35</v>
+      </c>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="36">
+        <v>36</v>
+      </c>
+      <c r="C6" s="37">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="38">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s" s="38">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s" s="38">
+        <v>39</v>
+      </c>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="36">
+        <v>40</v>
+      </c>
+      <c r="C7" s="37">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="38">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s" s="38">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="38">
+        <v>42</v>
+      </c>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="36">
+        <v>43</v>
+      </c>
+      <c r="C8" s="37">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="38">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="38">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s" s="38">
+        <v>42</v>
+      </c>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="36">
+        <v>45</v>
+      </c>
+      <c r="C9" s="37">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s" s="38">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s" s="38">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s" s="38">
+        <v>47</v>
+      </c>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="36">
+        <v>48</v>
+      </c>
+      <c r="C10" s="37">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="9">
+      <c r="D10" t="s" s="38">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="38">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s" s="38">
+        <v>51</v>
+      </c>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s" s="36">
+        <v>52</v>
+      </c>
+      <c r="C11" s="37">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="38">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s" s="38">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s" s="38">
+        <v>56</v>
+      </c>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="36">
+        <v>57</v>
+      </c>
+      <c r="C12" s="37">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="38">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s" s="38">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s" s="38">
+        <v>60</v>
+      </c>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" ht="21" customHeight="1">
+      <c r="A13" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="C13" s="37">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="38">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s" s="38">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s" s="38">
+        <v>64</v>
+      </c>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="A14" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s" s="36">
+        <v>66</v>
+      </c>
+      <c r="C14" s="37">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="D14" t="s" s="38">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s" s="38">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s" s="38">
+        <v>69</v>
+      </c>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" ht="21" customHeight="1">
+      <c r="A15" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s" s="36">
+        <v>70</v>
+      </c>
+      <c r="C15" s="37">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s" s="38">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s" s="38">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s" s="38">
+        <v>73</v>
+      </c>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" ht="21" customHeight="1">
+      <c r="A16" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s" s="36">
+        <v>74</v>
+      </c>
+      <c r="C16" s="37">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s" s="38">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s" s="38">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s" s="38">
+        <v>77</v>
+      </c>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" ht="21" customHeight="1">
+      <c r="A17" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s" s="36">
+        <v>78</v>
+      </c>
+      <c r="C17" s="37">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s" s="38">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s" s="38">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="38">
+        <v>80</v>
+      </c>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" ht="21" customHeight="1">
+      <c r="A18" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s" s="36">
+        <v>81</v>
+      </c>
+      <c r="C18" s="37">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s" s="38">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s" s="38">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="38">
+        <v>84</v>
+      </c>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" ht="21" customHeight="1">
+      <c r="A19" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s" s="36">
+        <v>85</v>
+      </c>
+      <c r="C19" s="37">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="D19" t="s" s="38">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s" s="38">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="38">
+        <v>88</v>
+      </c>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" ht="21" customHeight="1">
+      <c r="A20" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s" s="36">
+        <v>89</v>
+      </c>
+      <c r="C20" s="37">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s" s="38">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s" s="38">
+        <v>93</v>
+      </c>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" ht="21" customHeight="1">
+      <c r="A21" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s" s="36">
+        <v>94</v>
+      </c>
+      <c r="C21" s="37">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="38">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s" s="38">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s" s="38">
+        <v>97</v>
+      </c>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" ht="21" customHeight="1">
+      <c r="A22" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s" s="36">
+        <v>98</v>
+      </c>
+      <c r="C22" s="37">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="38">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s" s="38">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s" s="38">
+        <v>100</v>
+      </c>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" ht="21" customHeight="1">
+      <c r="A23" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="36">
+        <v>101</v>
+      </c>
+      <c r="C23" s="37">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="38">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s" s="38">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s" s="38">
+        <v>100</v>
+      </c>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" ht="21" customHeight="1">
+      <c r="A24" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s" s="36">
+        <v>103</v>
+      </c>
+      <c r="C24" s="37">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s" s="38">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s" s="38">
+        <v>105</v>
+      </c>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" ht="21" customHeight="1">
+      <c r="A25" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s" s="36">
+        <v>106</v>
+      </c>
+      <c r="C25" s="37">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="38">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s" s="38">
+        <v>108</v>
+      </c>
+      <c r="G25" t="s" s="38">
+        <v>109</v>
+      </c>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" ht="21" customHeight="1">
+      <c r="A26" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s" s="36">
+        <v>110</v>
+      </c>
+      <c r="C26" s="37">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="38">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s" s="38">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s" s="38">
+        <v>113</v>
+      </c>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" ht="21" customHeight="1">
+      <c r="A27" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s" s="36">
+        <v>114</v>
+      </c>
+      <c r="C27" s="37">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="38">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s" s="38">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s" s="38">
+        <v>116</v>
+      </c>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" ht="21" customHeight="1">
+      <c r="A28" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s" s="36">
+        <v>117</v>
+      </c>
+      <c r="C28" s="37">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="38">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s" s="38">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s" s="38">
+        <v>97</v>
+      </c>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" ht="21" customHeight="1">
+      <c r="A29" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s" s="36">
+        <v>118</v>
+      </c>
+      <c r="C29" s="37">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="10">
+      <c r="D29" t="s" s="38">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s" s="38">
+        <v>120</v>
+      </c>
+      <c r="G29" t="s" s="38">
+        <v>121</v>
+      </c>
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" ht="21" customHeight="1">
+      <c r="A30" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s" s="36">
+        <v>122</v>
+      </c>
+      <c r="C30" s="37">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s" s="38">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s" s="38">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s" s="38">
+        <v>124</v>
+      </c>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" ht="21" customHeight="1">
+      <c r="A31" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s" s="36">
+        <v>125</v>
+      </c>
+      <c r="C31" s="37">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s" s="38">
+        <v>119</v>
+      </c>
+      <c r="E31" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s" s="38">
+        <v>126</v>
+      </c>
+      <c r="G31" t="s" s="38">
+        <v>127</v>
+      </c>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" ht="21" customHeight="1">
+      <c r="A32" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s" s="36">
+        <v>128</v>
+      </c>
+      <c r="C32" s="37">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s" s="38">
+        <v>119</v>
+      </c>
+      <c r="E32" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s" s="38">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s" s="38">
+        <v>130</v>
+      </c>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" ht="21" customHeight="1">
+      <c r="A33" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s" s="36">
+        <v>131</v>
+      </c>
+      <c r="C33" s="37">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="21" customHeight="1">
-      <c r="A2" t="s" s="11">
+      <c r="D33" t="s" s="38">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s" s="38">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s" s="38">
+        <v>133</v>
+      </c>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" ht="21" customHeight="1">
+      <c r="A34" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s" s="36">
+        <v>134</v>
+      </c>
+      <c r="C34" s="37">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="38">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s" s="38">
+        <v>136</v>
+      </c>
+      <c r="G34" t="s" s="38">
+        <v>137</v>
+      </c>
+      <c r="H34" s="39"/>
+    </row>
+    <row r="35" ht="21" customHeight="1">
+      <c r="A35" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s" s="36">
+        <v>138</v>
+      </c>
+      <c r="C35" s="37">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C2" s="13">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="D35" t="s" s="38">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s" s="38">
+        <v>140</v>
+      </c>
+      <c r="G35" t="s" s="38">
+        <v>141</v>
+      </c>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" ht="21" customHeight="1">
+      <c r="A36" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s" s="36">
+        <v>142</v>
+      </c>
+      <c r="C36" s="37">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="17">
-        <v>20</v>
-      </c>
-      <c r="C3" s="18">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="17">
-        <v>22</v>
-      </c>
-      <c r="C4" s="18">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s" s="19">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s" s="17">
-        <v>24</v>
-      </c>
-      <c r="C5" s="18">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="17">
-        <v>29</v>
-      </c>
-      <c r="C6" s="18">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s" s="17">
-        <v>33</v>
-      </c>
-      <c r="C7" s="18">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s" s="19">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s" s="19">
-        <v>35</v>
-      </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" ht="21" customHeight="1">
-      <c r="A8" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="C8" s="18">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s" s="19">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s" s="19">
-        <v>35</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="17">
-        <v>38</v>
-      </c>
-      <c r="C9" s="18">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="C10" s="18">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s" s="19">
-        <v>44</v>
-      </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="C11" s="18">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s" s="19">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s" s="19">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s" s="19">
-        <v>49</v>
-      </c>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s" s="17">
-        <v>50</v>
-      </c>
-      <c r="C12" s="18">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s" s="19">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s" s="19">
-        <v>53</v>
-      </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" ht="21" customHeight="1">
-      <c r="A13" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s" s="17">
+      <c r="D36" t="s" s="38">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s" s="38">
         <v>54</v>
       </c>
-      <c r="C13" s="18">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s" s="19">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s" s="19">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" ht="21" customHeight="1">
-      <c r="A14" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s" s="17">
-        <v>58</v>
-      </c>
-      <c r="C14" s="18">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s" s="19">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s" s="19">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s" s="19">
-        <v>61</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s" s="17">
-        <v>62</v>
-      </c>
-      <c r="C15" s="18">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s" s="19">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s" s="19">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s" s="19">
-        <v>65</v>
-      </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" ht="21" customHeight="1">
-      <c r="A16" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s" s="17">
-        <v>66</v>
-      </c>
-      <c r="C16" s="18">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s" s="19">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s" s="19">
-        <v>68</v>
-      </c>
-      <c r="G16" t="s" s="19">
-        <v>69</v>
-      </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" ht="21" customHeight="1">
-      <c r="A17" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s" s="17">
-        <v>70</v>
-      </c>
-      <c r="C17" s="18">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s" s="19">
-        <v>63</v>
-      </c>
-      <c r="E17" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s" s="19">
-        <v>71</v>
-      </c>
-      <c r="G17" t="s" s="19">
-        <v>72</v>
-      </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" ht="21" customHeight="1">
-      <c r="A18" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s" s="17">
-        <v>73</v>
-      </c>
-      <c r="C18" s="18">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s" s="19">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s" s="19">
-        <v>75</v>
-      </c>
-      <c r="G18" t="s" s="19">
-        <v>76</v>
-      </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" ht="21" customHeight="1">
-      <c r="A19" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s" s="17">
-        <v>77</v>
-      </c>
-      <c r="C19" s="18">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="19">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s" s="19">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s" s="19">
-        <v>80</v>
-      </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" ht="21" customHeight="1">
-      <c r="A20" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s" s="17">
-        <v>81</v>
-      </c>
-      <c r="C20" s="18">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s" s="19">
-        <v>84</v>
-      </c>
-      <c r="G20" t="s" s="19">
-        <v>85</v>
-      </c>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" ht="21" customHeight="1">
-      <c r="A21" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s" s="17">
-        <v>86</v>
-      </c>
-      <c r="C21" s="18">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="19">
-        <v>87</v>
-      </c>
-      <c r="E21" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="F21" t="s" s="19">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s" s="19">
-        <v>89</v>
-      </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s" s="17">
-        <v>90</v>
-      </c>
-      <c r="C22" s="18">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="19">
-        <v>87</v>
-      </c>
-      <c r="E22" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="F22" t="s" s="19">
-        <v>91</v>
-      </c>
-      <c r="G22" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" ht="21" customHeight="1">
-      <c r="A23" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s" s="17">
-        <v>93</v>
-      </c>
-      <c r="C23" s="18">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="19">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="F23" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" ht="21" customHeight="1">
-      <c r="A24" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s" s="17">
-        <v>95</v>
-      </c>
-      <c r="C24" s="18">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="F24" t="s" s="19">
-        <v>96</v>
-      </c>
-      <c r="G24" t="s" s="19">
-        <v>97</v>
-      </c>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" ht="21" customHeight="1">
-      <c r="A25" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s" s="17">
-        <v>98</v>
-      </c>
-      <c r="C25" s="18">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="19">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="F25" t="s" s="19">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s" s="19">
-        <v>101</v>
-      </c>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" ht="21" customHeight="1">
-      <c r="A26" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s" s="17">
-        <v>102</v>
-      </c>
-      <c r="C26" s="18">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s" s="19">
-        <v>104</v>
-      </c>
-      <c r="G26" t="s" s="19">
-        <v>105</v>
-      </c>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" ht="21" customHeight="1">
-      <c r="A27" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s" s="17">
-        <v>106</v>
-      </c>
-      <c r="C27" s="18">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F27" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="G27" t="s" s="19">
-        <v>108</v>
-      </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" ht="21" customHeight="1">
-      <c r="A28" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s" s="17">
-        <v>109</v>
-      </c>
-      <c r="C28" s="18">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="19">
-        <v>87</v>
-      </c>
-      <c r="E28" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="F28" t="s" s="19">
-        <v>88</v>
-      </c>
-      <c r="G28" t="s" s="19">
-        <v>89</v>
-      </c>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" ht="21" customHeight="1">
-      <c r="A29" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s" s="17">
-        <v>110</v>
-      </c>
-      <c r="C29" s="18">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="E29" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s" s="19">
-        <v>112</v>
-      </c>
-      <c r="G29" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" ht="21" customHeight="1">
-      <c r="A30" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s" s="17">
-        <v>114</v>
-      </c>
-      <c r="C30" s="18">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="E30" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F30" t="s" s="19">
-        <v>115</v>
-      </c>
-      <c r="G30" t="s" s="19">
-        <v>116</v>
-      </c>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" ht="21" customHeight="1">
-      <c r="A31" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s" s="17">
-        <v>117</v>
-      </c>
-      <c r="C31" s="18">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="E31" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s" s="19">
-        <v>118</v>
-      </c>
-      <c r="G31" t="s" s="19">
-        <v>119</v>
-      </c>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" ht="21" customHeight="1">
-      <c r="A32" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s" s="17">
-        <v>120</v>
-      </c>
-      <c r="C32" s="18">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="E32" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F32" t="s" s="19">
-        <v>121</v>
-      </c>
-      <c r="G32" t="s" s="19">
-        <v>122</v>
-      </c>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" ht="21" customHeight="1">
-      <c r="A33" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s" s="17">
-        <v>123</v>
-      </c>
-      <c r="C33" s="18">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="E33" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F33" t="s" s="19">
-        <v>124</v>
-      </c>
-      <c r="G33" t="s" s="19">
-        <v>125</v>
-      </c>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" ht="21" customHeight="1">
-      <c r="A34" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s" s="17">
-        <v>126</v>
-      </c>
-      <c r="C34" s="18">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s" s="19">
-        <v>127</v>
-      </c>
-      <c r="E34" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="F34" t="s" s="19">
-        <v>128</v>
-      </c>
-      <c r="G34" t="s" s="19">
-        <v>129</v>
-      </c>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" ht="21" customHeight="1">
-      <c r="A35" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s" s="17">
-        <v>130</v>
-      </c>
-      <c r="C35" s="18">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s" s="19">
-        <v>131</v>
-      </c>
-      <c r="E35" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="G35" t="s" s="19">
-        <v>133</v>
-      </c>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" ht="21" customHeight="1">
-      <c r="A36" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s" s="17">
-        <v>134</v>
-      </c>
-      <c r="C36" s="18">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s" s="19">
-        <v>131</v>
-      </c>
-      <c r="E36" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="F36" t="s" s="19">
-        <v>135</v>
-      </c>
-      <c r="G36" t="s" s="19">
-        <v>136</v>
-      </c>
-      <c r="H36" s="20"/>
+      <c r="F36" t="s" s="38">
+        <v>143</v>
+      </c>
+      <c r="G36" t="s" s="38">
+        <v>144</v>
+      </c>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" ht="21" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="20"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" ht="21" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" t="s" s="24">
-        <v>137</v>
-      </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="20"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" t="s" s="43">
+        <v>145</v>
+      </c>
+      <c r="G38" s="41"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" ht="21" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="20"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A37">
+  <conditionalFormatting sqref="A2:A5 A7 A9:A10 A13:A14 A18 A37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Kom er niet uit"</formula>
     </cfRule>
@@ -3075,11 +3389,25 @@
       <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A6 A8 A11:A12 A15:A17 A19:A36">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal" stopIfTrue="1">
+      <formula>"Kom er niet uit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal" stopIfTrue="1">
+      <formula>"Afgerond"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal" stopIfTrue="1">
+      <formula>"Mee bezig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal" stopIfTrue="1">
+      <formula>"Todo"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16 E21:E33">
       <formula1>"bezoeker,geregistreerde bezoeker,beheerder,developer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A8 A11:A12 A14:A17 A19:A37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14 A37">
       <formula1>"Todo,Mee bezig,Afgerond,Kom er niet uit"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3099,398 +3427,398 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="19" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.3516" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.8516" style="25" customWidth="1"/>
-    <col min="3" max="3" width="28.8516" style="25" customWidth="1"/>
-    <col min="4" max="4" width="23.6719" style="25" customWidth="1"/>
-    <col min="5" max="5" width="90.5" style="25" customWidth="1"/>
-    <col min="6" max="6" width="68.5" style="25" customWidth="1"/>
-    <col min="7" max="7" width="43.6719" style="25" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="25" customWidth="1"/>
+    <col min="1" max="1" width="20.3516" style="44" customWidth="1"/>
+    <col min="2" max="2" width="14.8516" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.8516" style="44" customWidth="1"/>
+    <col min="4" max="4" width="23.6719" style="44" customWidth="1"/>
+    <col min="5" max="5" width="90.5" style="44" customWidth="1"/>
+    <col min="6" max="6" width="68.5" style="44" customWidth="1"/>
+    <col min="7" max="7" width="43.6719" style="44" customWidth="1"/>
+    <col min="8" max="256" width="10.8516" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s" s="10">
-        <v>13</v>
+      <c r="A1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s" s="28">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="28">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s" s="28">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s" s="28">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s" s="29">
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1">
-      <c r="A2" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="12">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s" s="14">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s" s="14">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s" s="14">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s" s="14">
-        <v>142</v>
-      </c>
-      <c r="G2" s="15"/>
+      <c r="A2" t="s" s="33">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s" s="31">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s" s="33">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s" s="33">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s" s="33">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s" s="33">
+        <v>149</v>
+      </c>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" ht="21" customHeight="1">
-      <c r="A3" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s" s="17">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s" s="19">
-        <v>144</v>
-      </c>
-      <c r="D3" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s" s="19">
-        <v>145</v>
-      </c>
-      <c r="F3" t="s" s="19">
-        <v>146</v>
-      </c>
-      <c r="G3" s="20"/>
+      <c r="A3" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s" s="38">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s" s="38">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s" s="38">
+        <v>153</v>
+      </c>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" ht="21" customHeight="1">
-      <c r="A4" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s" s="17">
-        <v>147</v>
-      </c>
-      <c r="C4" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s" s="19">
-        <v>148</v>
-      </c>
-      <c r="F4" t="s" s="19">
-        <v>149</v>
-      </c>
-      <c r="G4" s="20"/>
+      <c r="A4" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s" s="38">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s" s="38">
+        <v>156</v>
+      </c>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s" s="17">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s" s="19">
+      <c r="A5" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s" s="38">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s" s="38">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s" s="38">
+        <v>159</v>
+      </c>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s" s="36">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s" s="38">
+        <v>161</v>
+      </c>
+      <c r="D6" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s" s="38">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s" s="38">
+        <v>163</v>
+      </c>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s" s="36">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s" s="38">
         <v>151</v>
       </c>
-      <c r="F5" t="s" s="19">
-        <v>152</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="17">
-        <v>153</v>
-      </c>
-      <c r="C6" t="s" s="19">
-        <v>154</v>
-      </c>
-      <c r="D6" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s" s="19">
-        <v>155</v>
-      </c>
-      <c r="F6" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s" s="17">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s" s="19">
-        <v>144</v>
-      </c>
-      <c r="D7" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s" s="19">
-        <v>158</v>
-      </c>
-      <c r="F7" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="G7" s="20"/>
+      <c r="D7" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s" s="38">
+        <v>165</v>
+      </c>
+      <c r="F7" t="s" s="38">
+        <v>166</v>
+      </c>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" ht="21" customHeight="1">
-      <c r="A8" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s" s="17">
-        <v>160</v>
-      </c>
-      <c r="C8" t="s" s="19">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s" s="19">
-        <v>161</v>
-      </c>
-      <c r="F8" t="s" s="19">
-        <v>162</v>
-      </c>
-      <c r="G8" s="20"/>
+      <c r="A8" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s" s="36">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s" s="38">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s" s="38">
+        <v>168</v>
+      </c>
+      <c r="F8" t="s" s="38">
+        <v>169</v>
+      </c>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" ht="21" customHeight="1">
-      <c r="A9" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s" s="17">
-        <v>163</v>
-      </c>
-      <c r="C9" t="s" s="19">
-        <v>164</v>
-      </c>
-      <c r="D9" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s" s="19">
-        <v>165</v>
-      </c>
-      <c r="F9" t="s" s="19">
-        <v>166</v>
-      </c>
-      <c r="G9" s="20"/>
+      <c r="A9" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s" s="36">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s" s="38">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s" s="38">
+        <v>172</v>
+      </c>
+      <c r="F9" t="s" s="38">
+        <v>173</v>
+      </c>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s" s="17">
-        <v>167</v>
-      </c>
-      <c r="C10" t="s" s="19">
-        <v>168</v>
-      </c>
-      <c r="D10" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s" s="19">
-        <v>169</v>
-      </c>
-      <c r="F10" t="s" s="19">
-        <v>170</v>
-      </c>
-      <c r="G10" s="20"/>
+      <c r="A10" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s" s="36">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s" s="38">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s" s="38">
+        <v>176</v>
+      </c>
+      <c r="F10" t="s" s="38">
+        <v>177</v>
+      </c>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s" s="17">
-        <v>171</v>
-      </c>
-      <c r="C11" t="s" s="19">
-        <v>172</v>
-      </c>
-      <c r="D11" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s" s="19">
-        <v>173</v>
-      </c>
-      <c r="F11" t="s" s="19">
-        <v>174</v>
-      </c>
-      <c r="G11" s="20"/>
+      <c r="A11" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s" s="36">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s" s="38">
+        <v>179</v>
+      </c>
+      <c r="D11" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s" s="38">
+        <v>180</v>
+      </c>
+      <c r="F11" t="s" s="38">
+        <v>181</v>
+      </c>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s" s="17">
-        <v>175</v>
-      </c>
-      <c r="C12" t="s" s="19">
-        <v>176</v>
-      </c>
-      <c r="D12" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s" s="19">
-        <v>177</v>
-      </c>
-      <c r="F12" t="s" s="19">
-        <v>178</v>
-      </c>
-      <c r="G12" s="20"/>
+      <c r="A12" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s" s="36">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s" s="38">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s" s="38">
+        <v>184</v>
+      </c>
+      <c r="F12" t="s" s="38">
+        <v>185</v>
+      </c>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" ht="21" customHeight="1">
-      <c r="A13" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s" s="17">
-        <v>179</v>
-      </c>
-      <c r="C13" t="s" s="19">
-        <v>180</v>
-      </c>
-      <c r="D13" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s" s="19">
-        <v>181</v>
-      </c>
-      <c r="F13" t="s" s="19">
-        <v>182</v>
-      </c>
-      <c r="G13" s="20"/>
+      <c r="A13" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s" s="36">
+        <v>186</v>
+      </c>
+      <c r="C13" t="s" s="38">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s" s="38">
+        <v>188</v>
+      </c>
+      <c r="F13" t="s" s="38">
+        <v>189</v>
+      </c>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" ht="21" customHeight="1">
-      <c r="A14" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s" s="17">
-        <v>183</v>
-      </c>
-      <c r="C14" t="s" s="19">
-        <v>184</v>
-      </c>
-      <c r="D14" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s" s="19">
-        <v>185</v>
-      </c>
-      <c r="F14" t="s" s="19">
-        <v>186</v>
-      </c>
-      <c r="G14" s="20"/>
+      <c r="A14" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s" s="36">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s" s="38">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s" s="38">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s" s="38">
+        <v>192</v>
+      </c>
+      <c r="F14" t="s" s="38">
+        <v>193</v>
+      </c>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" ht="21" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" ht="21" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" t="s" s="24">
-        <v>187</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" t="s" s="43">
+        <v>194</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" ht="21" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" ht="21" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" ht="21" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="20"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" ht="21" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="20"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" ht="21" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="39"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Kom er niet uit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal" stopIfTrue="1">
       <formula>"Afgerond"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal" stopIfTrue="1">
       <formula>"Mee bezig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal" stopIfTrue="1">
       <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3515,102 +3843,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="26" customWidth="1"/>
-    <col min="3" max="3" width="22" style="26" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="26" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="26" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="45" customWidth="1"/>
+    <col min="2" max="2" width="10.8516" style="45" customWidth="1"/>
+    <col min="3" max="3" width="22" style="45" customWidth="1"/>
+    <col min="4" max="5" width="10.8516" style="45" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="27">
-        <v>189</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" t="s" s="27">
-        <v>6</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" t="s" s="46">
+        <v>195</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" t="s" s="46">
+        <v>14</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="27">
-        <v>47</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" t="s" s="27">
-        <v>28</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="A2" t="s" s="46">
+        <v>54</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" t="s" s="46">
+        <v>65</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="27">
-        <v>190</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" t="s" s="27">
-        <v>191</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" t="s" s="46">
+        <v>196</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" t="s" s="46">
+        <v>197</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="27">
-        <v>83</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" t="s" s="27">
-        <v>192</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" t="s" s="46">
+        <v>91</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" t="s" s="46">
+        <v>198</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="27">
-        <v>17</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" t="s" s="27">
-        <v>193</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" t="s" s="46">
+        <v>25</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" t="s" s="46">
+        <v>199</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3629,88 +3957,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="48.1719" style="29" customWidth="1"/>
-    <col min="3" max="3" width="83" style="29" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="29" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="29" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="47" customWidth="1"/>
+    <col min="2" max="2" width="48.1719" style="47" customWidth="1"/>
+    <col min="3" max="3" width="83" style="47" customWidth="1"/>
+    <col min="4" max="5" width="10.8516" style="47" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="27">
-        <v>195</v>
-      </c>
-      <c r="B1" t="s" s="27">
-        <v>196</v>
-      </c>
-      <c r="C1" t="s" s="27">
-        <v>197</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" t="s" s="46">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s" s="46">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s" s="46">
+        <v>202</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
